--- a/NewLawsGet/附件/chl.xlsx
+++ b/NewLawsGet/附件/chl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,48 +448,300 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>中国金融期货交易所关于提示股指期货和股指期权合约交割相关事项的通知(中金所发〔2024〕58号)</t>
+          <t>最高法与全国妇联联合发布5件反家庭暴力犯罪典型案例</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/chl/f676bd0747f6f5c1bdfb.html?way=listView</t>
+          <t>/chl/7266c7124930dd3bbdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>自然资源部关于云南锡业股份有限公司老厂分公司等10个矿山地质环境保护与土地复垦方案通过审查的公告</t>
+          <t>国家药监局关于同意北京等十省(市)开展优化药品补充申请审评审批程序改革试点的批复</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/chl/47a725515ddd8d90bdfb.html?way=listView</t>
+          <t>/chl/46c85fb582f2b410bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>国管局高评委办公室关于2024年度国管局高级会计师职称评审答辩工作有关事项的通知</t>
+          <t>交通运输部关于公布第69批道路运输车辆达标车型的公告</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/chl/b38667015ab95e21bdfb.html?way=listView</t>
+          <t>/chl/baf766342eef1bc3bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>文化和旅游部办公厅关于组织开展2024年全国智慧旅游解决方案推荐遴选工作的通知</t>
+          <t>科技部国际合作司关于征集2025年度“中巴(西)青年科学家交流计划”交流项目的通知</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/chl/3e59f4b1e809d0b1bdfb.html?way=listView</t>
+          <t>/chl/507ece69531b6e40bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>国家核安全局关于公布2024年第四批注册核安全工程师准予注册、延续注册和变更注册人员名单的通知</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/chl/7dd1768a47501179bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国海事局关于印发《中华人民共和国海船船员培训合格证书签发管理办法》的通知(2024修订)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/chl/ff8a283fa2ed1cedbdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>海关总署、农业农村部公告2024年第166号—关于防止利比亚国蓝舌病传入我国的公告</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>/chl/ddd9592fe5708a02bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>海关总署公告2024年第165号—关于最不发达国家特别优惠关税待遇原产地证书签发系统有关事宜的公告</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/chl/4bac69b1726a9c8ebdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>国家知识产权局人事司关于开展2024年度经济系列知识产权专业高级职称评审工作的通知</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>/chl/76e0d944edba049abdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>中国气象局关于公布2024年气象科技活动周优秀组织单位和优秀活动的通知</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>/chl/f20d7de5199e04a7bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>中国证券监督管理委员会公告〔2024〕16号—关于发布《上市公司行业统计分类与代码》等8项金融行业标准的公告</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/chl/dc2c5200a73ec4c8bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>国家文物局关于处州廊桥之步蟾桥S209奉化至庆元公路庆元五大堡至龙溪段改建工程(杨楼至龙溪段)项目的批复</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>/chl/e05a0257844a73a1bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>文化和旅游部办公厅关于促进旅行社研学旅游业务健康发展的通知</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>/chl/dbc3fdbd27945d0fbdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>国家邮政局关于印发《邮政企业、快递企业生产安全重大事故隐患判定标准》的通知</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>/chl/ef1d55ca4ed00ea7bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>文化和旅游部办公厅、工业和信息化部办公厅、民政部办公厅关于公布2024年智慧旅游适老化典型案例的通知</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>/chl/dcf01ad1e5cb5bd8bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国工业和信息化部公告2024年第33号—关于修订《光伏制造行业规范条件》和《光伏制造行业规范公告管理暂行办法》的公告(2024)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>/chl/f4ab0466acb5ce25bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>交通运输部关于发布《内河航运北斗差分数据播发与接收技术要求》等10项交通运输行业标准的公告</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>/chl/1b97aa489f891af3bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>国家卫生健康委、工业和信息化部、国家医保局、国家中医药局、国家疾控局、国家药监局关于改革完善基层药品联动管理机制 扩大基层药品种类的意见</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/chl/9d6f361c356e7670bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>国家文物局关于隋唐洛阳城遗址建设控制地带内洛阳经开东110千伏输变电工程项目的批复</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>/chl/2af3be4f5c258b5dbdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>民政部办公厅关于发布2025年民政政策理论研究课题指南的通知</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/chl/2a80cf87109eb980bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>国家税务总局关于推广应用全面数字化电子发票的公告</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>/chl/8c55a072c0fb8e90bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>中央网络安全和信息化委员会办公室秘书局、工业和信息化部办公厅、公安部办公厅、国家市场监督管理总局办公厅关于开展“清朗·网络平台算法典型问题治理”专项行动的通知</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>/chl/49c5e9a8511ca067bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>国家文物局关于南京城墙保护范围和建设控制地带内鼓楼区人社局院内西北侧边坡治理项目的批复</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/chl/be0cdab658270250bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>国家文物局关于摩诃庵建设控制地带内首都师范大学附属中学改扩建工程项目的批复</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>/chl/a8e5419d1c0b5796bdfb.html?way=listView</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>教育部办公厅关于印发《中小学校园食品安全和膳食经费管理工作指引》的通知</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>/chl/a4b0029b8902e897bdfb.html?way=listView</t>
         </is>
       </c>
     </row>

--- a/NewLawsGet/附件/chl.xlsx
+++ b/NewLawsGet/附件/chl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,300 +448,84 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>最高法与全国妇联联合发布5件反家庭暴力犯罪典型案例</t>
+          <t>商务部公告2025年第1号—关于公布将28家美国实体列入出口管制管控名单的公告</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/chl/7266c7124930dd3bbdfb.html?way=listView</t>
+          <t>/chl/fa127993db3ccc8fbdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>国家药监局关于同意北京等十省(市)开展优化药品补充申请审评审批程序改革试点的批复</t>
+          <t>不可靠实体清单工作机制公告2025年第1号——关于将参与对台湾地区军售的洛克希德·马丁导弹与火控公司等9家公司列入不可靠实体清单的公告</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/chl/46c85fb582f2b410bdfb.html?way=listView</t>
+          <t>/chl/f1172e6e30c7b761bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>交通运输部关于公布第69批道路运输车辆达标车型的公告</t>
+          <t>全国银行间同业拆借中心关于发布2025年银行间债券市场标准折算率折扣系数的通知</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/chl/baf766342eef1bc3bdfb.html?way=listView</t>
+          <t>/chl/2d44dd7b3ea41e91bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>科技部国际合作司关于征集2025年度“中巴(西)青年科学家交流计划”交流项目的通知</t>
+          <t>中国总会计师协会秘书处关于印发《中国总会计师协会2025年度教育培训计划》的通知</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/chl/507ece69531b6e40bdfb.html?way=listView</t>
+          <t>/chl/0bb462b99f9645afbdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>国家核安全局关于公布2024年第四批注册核安全工程师准予注册、延续注册和变更注册人员名单的通知</t>
+          <t>银行间市场清算所股份有限公司关于推出债券回售后转售业务线上化功能的通知</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/chl/7dd1768a47501179bdfb.html?way=listView</t>
+          <t>/chl/467082e170aa4779bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>中华人民共和国海事局关于印发《中华人民共和国海船船员培训合格证书签发管理办法》的通知(2024修订)</t>
+          <t>中国工商银行关于2025年跨行小额支付业务和网上跨行支付业务暂停受理有关安排的通告</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/chl/ff8a283fa2ed1cedbdfb.html?way=listView</t>
+          <t>/chl/551ffc9ac89141a7bdfb.html?way=listView</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>海关总署、农业农村部公告2024年第166号—关于防止利比亚国蓝舌病传入我国的公告</t>
+          <t>中国证券业协会关于2025年1月证券行业专业人员水平评价预约测试公告</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/chl/ddd9592fe5708a02bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>海关总署公告2024年第165号—关于最不发达国家特别优惠关税待遇原产地证书签发系统有关事宜的公告</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>/chl/4bac69b1726a9c8ebdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>国家知识产权局人事司关于开展2024年度经济系列知识产权专业高级职称评审工作的通知</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>/chl/76e0d944edba049abdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>中国气象局关于公布2024年气象科技活动周优秀组织单位和优秀活动的通知</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>/chl/f20d7de5199e04a7bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>中国证券监督管理委员会公告〔2024〕16号—关于发布《上市公司行业统计分类与代码》等8项金融行业标准的公告</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>/chl/dc2c5200a73ec4c8bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>国家文物局关于处州廊桥之步蟾桥S209奉化至庆元公路庆元五大堡至龙溪段改建工程(杨楼至龙溪段)项目的批复</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>/chl/e05a0257844a73a1bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>文化和旅游部办公厅关于促进旅行社研学旅游业务健康发展的通知</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>/chl/dbc3fdbd27945d0fbdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>国家邮政局关于印发《邮政企业、快递企业生产安全重大事故隐患判定标准》的通知</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>/chl/ef1d55ca4ed00ea7bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>文化和旅游部办公厅、工业和信息化部办公厅、民政部办公厅关于公布2024年智慧旅游适老化典型案例的通知</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>/chl/dcf01ad1e5cb5bd8bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>中华人民共和国工业和信息化部公告2024年第33号—关于修订《光伏制造行业规范条件》和《光伏制造行业规范公告管理暂行办法》的公告(2024)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>/chl/f4ab0466acb5ce25bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>交通运输部关于发布《内河航运北斗差分数据播发与接收技术要求》等10项交通运输行业标准的公告</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>/chl/1b97aa489f891af3bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>国家卫生健康委、工业和信息化部、国家医保局、国家中医药局、国家疾控局、国家药监局关于改革完善基层药品联动管理机制 扩大基层药品种类的意见</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>/chl/9d6f361c356e7670bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>国家文物局关于隋唐洛阳城遗址建设控制地带内洛阳经开东110千伏输变电工程项目的批复</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>/chl/2af3be4f5c258b5dbdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>民政部办公厅关于发布2025年民政政策理论研究课题指南的通知</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>/chl/2a80cf87109eb980bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>国家税务总局关于推广应用全面数字化电子发票的公告</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>/chl/8c55a072c0fb8e90bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>中央网络安全和信息化委员会办公室秘书局、工业和信息化部办公厅、公安部办公厅、国家市场监督管理总局办公厅关于开展“清朗·网络平台算法典型问题治理”专项行动的通知</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>/chl/49c5e9a8511ca067bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>国家文物局关于南京城墙保护范围和建设控制地带内鼓楼区人社局院内西北侧边坡治理项目的批复</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>/chl/be0cdab658270250bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>国家文物局关于摩诃庵建设控制地带内首都师范大学附属中学改扩建工程项目的批复</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>/chl/a8e5419d1c0b5796bdfb.html?way=listView</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>教育部办公厅关于印发《中小学校园食品安全和膳食经费管理工作指引》的通知</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>/chl/a4b0029b8902e897bdfb.html?way=listView</t>
+          <t>/chl/7942de0a4641b42cbdfb.html?way=listView</t>
         </is>
       </c>
     </row>
